--- a/Assignments/Assignment_14/Shelby Copy -> ADD TO MAIN.xlsx
+++ b/Assignments/Assignment_14/Shelby Copy -> ADD TO MAIN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t xml:space="preserve">Big Big Huge Parking For To Make the Transport Of Self To and From The Classes And Parking Lots To For The Making Of Facilitation To Make Easy and Fun. Very Good. </t>
   </si>
@@ -121,6 +121,10 @@
 2. A hover over lot window that displays the lot information at that time.</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Pop up options.
+2. Voice interaction.</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a user, I would like the option to select multiple parking options simultaneously and determine my anticipated desitination so that I can see which lot provides the best walking option to my classes.</t>
   </si>
   <si>
@@ -130,6 +134,14 @@
   <si>
     <t xml:space="preserve">1. Color coded paths.
 2.A table or some other form that shows all parking options the user selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Additional routes shown that the user didn’t select.
+2.Show impediments on any route.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A small window.
+2. A free text area to accept user input for this field.</t>
   </si>
   <si>
     <t xml:space="preserve">1. I, as a user of this application, would like to have a auto suggestion box when typing in my class information.
@@ -563,12 +575,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -650,8 +662,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,11 +757,13 @@
       <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="183" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>14</v>
@@ -757,94 +771,98 @@
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="200" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="181" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
-      <c r="B7" s="23" t="s">
-        <v>22</v>
+      <c r="B7" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="250" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="250" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="200" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -856,19 +874,19 @@
     <row r="11" customFormat="false" ht="200" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="181.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -880,14 +898,14 @@
     <row r="13" customFormat="false" ht="223.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
       <c r="B13" s="19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
